--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3567.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3567.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.212335510861798</v>
+        <v>0.6951934695243835</v>
       </c>
       <c r="B1">
-        <v>1.732405562543644</v>
+        <v>2.043120861053467</v>
       </c>
       <c r="C1">
-        <v>3.267334937910189</v>
+        <v>2.454780340194702</v>
       </c>
       <c r="D1">
-        <v>4.917845138692651</v>
+        <v>0.80034339427948</v>
       </c>
       <c r="E1">
-        <v>1.087115055057513</v>
+        <v>0.9028966426849365</v>
       </c>
     </row>
   </sheetData>
